--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value510.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value510.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.148658756201615</v>
+        <v>1.232270002365112</v>
       </c>
       <c r="B1">
-        <v>2.095656775705796</v>
+        <v>2.501514673233032</v>
       </c>
       <c r="C1">
-        <v>2.821372332924888</v>
+        <v>4.268093109130859</v>
       </c>
       <c r="D1">
-        <v>2.188377792666664</v>
+        <v>2.591438055038452</v>
       </c>
       <c r="E1">
-        <v>0.7966961953353123</v>
+        <v>1.080204367637634</v>
       </c>
     </row>
   </sheetData>
